--- a/data/dados.xlsx
+++ b/data/dados.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexia\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexia\Documents\2° semestre 22.2\CDados\Projetos\p1_alexia_ellen\22-2a-cd-p1-grupo_alexiabp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C7F9A8-1380-4D5C-845A-EE606E0336E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59582148-CB9C-4D8B-8ACA-EC20041B30DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9844,8 +9844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F763"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A726" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K601" sqref="K601"/>
+    <sheetView tabSelected="1" topLeftCell="A770" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F809" sqref="F809"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21331,6 +21331,9 @@
       <c r="E574">
         <v>122</v>
       </c>
+      <c r="F574">
+        <v>0</v>
+      </c>
     </row>
     <row r="575" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A575" t="s">
@@ -21712,7 +21715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="594" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A594" t="s">
         <v>6</v>
       </c>
@@ -22492,7 +22495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="633" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A633" t="s">
         <v>6</v>
       </c>
@@ -24743,7 +24746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F305"/>
   <sheetViews>
-    <sheetView topLeftCell="C298" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N1499" sqref="N1499"/>
     </sheetView>
   </sheetViews>

--- a/data/dados.xlsx
+++ b/data/dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexia\Documents\2° semestre 22.2\CDados\Projetos\p1_alexia_ellen\22-2a-cd-p1-grupo_alexiabp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59582148-CB9C-4D8B-8ACA-EC20041B30DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7494FB-9858-4195-8E50-6810C6803FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9842,10 +9842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F763"/>
+  <dimension ref="A1:F743"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A770" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F809" sqref="F809"/>
+    <sheetView tabSelected="1" topLeftCell="A486" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B707" sqref="B707"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23455,41 +23455,421 @@
         <v>1</v>
       </c>
     </row>
-    <row r="681" spans="1:6" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="682" spans="1:6" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="683" spans="1:6" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="684" spans="1:6" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="685" spans="1:6" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="686" spans="1:6" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="687" spans="1:6" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="688" spans="1:6" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="689" spans="1:6" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="690" spans="1:6" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="691" spans="1:6" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="692" spans="1:6" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="693" spans="1:6" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="694" spans="1:6" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="695" spans="1:6" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="696" spans="1:6" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="697" spans="1:6" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="698" spans="1:6" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="699" spans="1:6" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="700" spans="1:6" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="681" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A681" t="s">
+        <v>6</v>
+      </c>
+      <c r="B681" t="s">
+        <v>684</v>
+      </c>
+      <c r="C681" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D681" t="s">
+        <v>2174</v>
+      </c>
+      <c r="E681">
+        <v>226</v>
+      </c>
+      <c r="F681">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="682" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A682" t="s">
+        <v>6</v>
+      </c>
+      <c r="B682" t="s">
+        <v>685</v>
+      </c>
+      <c r="C682" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D682" t="s">
+        <v>2175</v>
+      </c>
+      <c r="E682">
+        <v>12</v>
+      </c>
+      <c r="F682">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="683" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A683" t="s">
+        <v>6</v>
+      </c>
+      <c r="B683" t="s">
+        <v>686</v>
+      </c>
+      <c r="C683" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D683" t="s">
+        <v>2176</v>
+      </c>
+      <c r="E683">
+        <v>18</v>
+      </c>
+      <c r="F683">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="684" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A684" t="s">
+        <v>6</v>
+      </c>
+      <c r="B684" t="s">
+        <v>687</v>
+      </c>
+      <c r="C684" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D684" t="s">
+        <v>2177</v>
+      </c>
+      <c r="E684">
+        <v>231</v>
+      </c>
+      <c r="F684">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="685" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A685" t="s">
+        <v>6</v>
+      </c>
+      <c r="B685" t="s">
+        <v>688</v>
+      </c>
+      <c r="C685" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D685" t="s">
+        <v>2178</v>
+      </c>
+      <c r="E685">
+        <v>75</v>
+      </c>
+      <c r="F685">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="686" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A686" t="s">
+        <v>6</v>
+      </c>
+      <c r="B686" t="s">
+        <v>689</v>
+      </c>
+      <c r="C686" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D686" t="s">
+        <v>2179</v>
+      </c>
+      <c r="E686">
+        <v>54</v>
+      </c>
+      <c r="F686">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="687" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A687" t="s">
+        <v>6</v>
+      </c>
+      <c r="B687" t="s">
+        <v>690</v>
+      </c>
+      <c r="C687" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D687" t="s">
+        <v>2180</v>
+      </c>
+      <c r="E687">
+        <v>214</v>
+      </c>
+      <c r="F687">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="688" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A688" t="s">
+        <v>6</v>
+      </c>
+      <c r="B688" t="s">
+        <v>691</v>
+      </c>
+      <c r="C688" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D688" t="s">
+        <v>2181</v>
+      </c>
+      <c r="E688">
+        <v>250</v>
+      </c>
+      <c r="F688">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="689" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A689" t="s">
+        <v>6</v>
+      </c>
+      <c r="B689" t="s">
+        <v>692</v>
+      </c>
+      <c r="C689" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D689" t="s">
+        <v>2182</v>
+      </c>
+      <c r="E689">
+        <v>29</v>
+      </c>
+      <c r="F689">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="690" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A690" t="s">
+        <v>6</v>
+      </c>
+      <c r="B690" t="s">
+        <v>693</v>
+      </c>
+      <c r="C690" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D690" t="s">
+        <v>2183</v>
+      </c>
+      <c r="E690">
+        <v>106</v>
+      </c>
+      <c r="F690">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="691" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A691" t="s">
+        <v>6</v>
+      </c>
+      <c r="B691" t="s">
+        <v>694</v>
+      </c>
+      <c r="C691" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D691" t="s">
+        <v>2184</v>
+      </c>
+      <c r="E691">
+        <v>48</v>
+      </c>
+      <c r="F691">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="692" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A692" t="s">
+        <v>6</v>
+      </c>
+      <c r="B692" t="s">
+        <v>695</v>
+      </c>
+      <c r="C692" t="s">
+        <v>1441</v>
+      </c>
+      <c r="D692" t="s">
+        <v>2185</v>
+      </c>
+      <c r="E692">
+        <v>78</v>
+      </c>
+      <c r="F692">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="693" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A693" t="s">
+        <v>6</v>
+      </c>
+      <c r="B693" t="s">
+        <v>696</v>
+      </c>
+      <c r="C693" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D693" t="s">
+        <v>2186</v>
+      </c>
+      <c r="E693">
+        <v>60</v>
+      </c>
+      <c r="F693">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="694" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A694" t="s">
+        <v>6</v>
+      </c>
+      <c r="B694" t="s">
+        <v>697</v>
+      </c>
+      <c r="C694" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D694" t="s">
+        <v>2187</v>
+      </c>
+      <c r="E694">
+        <v>5</v>
+      </c>
+      <c r="F694">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="695" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A695" t="s">
+        <v>6</v>
+      </c>
+      <c r="B695" t="s">
+        <v>698</v>
+      </c>
+      <c r="C695" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D695" t="s">
+        <v>2188</v>
+      </c>
+      <c r="E695">
+        <v>288</v>
+      </c>
+      <c r="F695">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="696" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A696" t="s">
+        <v>7</v>
+      </c>
+      <c r="B696" t="s">
+        <v>699</v>
+      </c>
+      <c r="C696" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D696" t="s">
+        <v>2189</v>
+      </c>
+      <c r="E696">
+        <v>113</v>
+      </c>
+      <c r="F696">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="697" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A697" t="s">
+        <v>6</v>
+      </c>
+      <c r="B697" t="s">
+        <v>700</v>
+      </c>
+      <c r="C697" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D697" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E697">
+        <v>208</v>
+      </c>
+      <c r="F697">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="698" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A698" t="s">
+        <v>6</v>
+      </c>
+      <c r="B698" t="s">
+        <v>701</v>
+      </c>
+      <c r="C698" t="s">
+        <v>1447</v>
+      </c>
+      <c r="D698" t="s">
+        <v>2191</v>
+      </c>
+      <c r="E698">
+        <v>183</v>
+      </c>
+      <c r="F698">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="699" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A699" t="s">
+        <v>6</v>
+      </c>
+      <c r="B699" t="s">
+        <v>702</v>
+      </c>
+      <c r="C699" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D699" t="s">
+        <v>2192</v>
+      </c>
+      <c r="E699">
+        <v>235</v>
+      </c>
+      <c r="F699">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="700" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A700" t="s">
+        <v>6</v>
+      </c>
+      <c r="B700" t="s">
+        <v>703</v>
+      </c>
+      <c r="C700" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D700" t="s">
+        <v>2193</v>
+      </c>
+      <c r="E700">
+        <v>127</v>
+      </c>
+      <c r="F700">
+        <v>1</v>
+      </c>
+    </row>
     <row r="701" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A701" t="s">
         <v>6</v>
       </c>
       <c r="B701" t="s">
-        <v>684</v>
+        <v>704</v>
       </c>
       <c r="C701" t="s">
-        <v>1430</v>
+        <v>1450</v>
       </c>
       <c r="D701" t="s">
-        <v>2174</v>
+        <v>2194</v>
       </c>
       <c r="E701">
-        <v>226</v>
+        <v>42</v>
       </c>
       <c r="F701">
         <v>1</v>
@@ -23500,16 +23880,16 @@
         <v>6</v>
       </c>
       <c r="B702" t="s">
-        <v>685</v>
+        <v>705</v>
       </c>
       <c r="C702" t="s">
-        <v>1431</v>
+        <v>1451</v>
       </c>
       <c r="D702" t="s">
-        <v>2175</v>
+        <v>2195</v>
       </c>
       <c r="E702">
-        <v>12</v>
+        <v>273</v>
       </c>
       <c r="F702">
         <v>1</v>
@@ -23520,16 +23900,16 @@
         <v>6</v>
       </c>
       <c r="B703" t="s">
-        <v>686</v>
+        <v>706</v>
       </c>
       <c r="C703" t="s">
-        <v>1432</v>
+        <v>1452</v>
       </c>
       <c r="D703" t="s">
-        <v>2176</v>
+        <v>2196</v>
       </c>
       <c r="E703">
-        <v>18</v>
+        <v>281</v>
       </c>
       <c r="F703">
         <v>1</v>
@@ -23540,16 +23920,16 @@
         <v>6</v>
       </c>
       <c r="B704" t="s">
-        <v>687</v>
+        <v>707</v>
       </c>
       <c r="C704" t="s">
-        <v>1433</v>
+        <v>1453</v>
       </c>
       <c r="D704" t="s">
-        <v>2177</v>
+        <v>2197</v>
       </c>
       <c r="E704">
-        <v>231</v>
+        <v>291</v>
       </c>
       <c r="F704">
         <v>1</v>
@@ -23560,16 +23940,16 @@
         <v>6</v>
       </c>
       <c r="B705" t="s">
-        <v>688</v>
+        <v>708</v>
       </c>
       <c r="C705" t="s">
-        <v>1434</v>
+        <v>1454</v>
       </c>
       <c r="D705" t="s">
-        <v>2178</v>
+        <v>2198</v>
       </c>
       <c r="E705">
-        <v>75</v>
+        <v>297</v>
       </c>
       <c r="F705">
         <v>1</v>
@@ -23580,19 +23960,19 @@
         <v>6</v>
       </c>
       <c r="B706" t="s">
-        <v>689</v>
+        <v>709</v>
       </c>
       <c r="C706" t="s">
-        <v>1435</v>
+        <v>1455</v>
       </c>
       <c r="D706" t="s">
-        <v>2179</v>
+        <v>2199</v>
       </c>
       <c r="E706">
-        <v>54</v>
+        <v>122</v>
       </c>
       <c r="F706">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707" spans="1:6" x14ac:dyDescent="0.35">
@@ -23600,16 +23980,16 @@
         <v>6</v>
       </c>
       <c r="B707" t="s">
-        <v>690</v>
+        <v>710</v>
       </c>
       <c r="C707" t="s">
-        <v>1436</v>
+        <v>1456</v>
       </c>
       <c r="D707" t="s">
-        <v>2180</v>
+        <v>2200</v>
       </c>
       <c r="E707">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="F707">
         <v>1</v>
@@ -23620,16 +24000,16 @@
         <v>6</v>
       </c>
       <c r="B708" t="s">
-        <v>691</v>
+        <v>711</v>
       </c>
       <c r="C708" t="s">
-        <v>1437</v>
+        <v>1457</v>
       </c>
       <c r="D708" t="s">
-        <v>2181</v>
+        <v>2201</v>
       </c>
       <c r="E708">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="F708">
         <v>1</v>
@@ -23640,16 +24020,16 @@
         <v>6</v>
       </c>
       <c r="B709" t="s">
-        <v>692</v>
+        <v>712</v>
       </c>
       <c r="C709" t="s">
-        <v>1438</v>
+        <v>1458</v>
       </c>
       <c r="D709" t="s">
-        <v>2182</v>
+        <v>2202</v>
       </c>
       <c r="E709">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="F709">
         <v>1</v>
@@ -23660,16 +24040,16 @@
         <v>6</v>
       </c>
       <c r="B710" t="s">
-        <v>693</v>
+        <v>713</v>
       </c>
       <c r="C710" t="s">
-        <v>1439</v>
+        <v>1459</v>
       </c>
       <c r="D710" t="s">
-        <v>2183</v>
+        <v>2203</v>
       </c>
       <c r="E710">
-        <v>106</v>
+        <v>229</v>
       </c>
       <c r="F710">
         <v>1</v>
@@ -23680,16 +24060,16 @@
         <v>6</v>
       </c>
       <c r="B711" t="s">
-        <v>694</v>
+        <v>714</v>
       </c>
       <c r="C711" t="s">
-        <v>1440</v>
+        <v>1460</v>
       </c>
       <c r="D711" t="s">
-        <v>2184</v>
+        <v>2204</v>
       </c>
       <c r="E711">
-        <v>48</v>
+        <v>198</v>
       </c>
       <c r="F711">
         <v>1</v>
@@ -23700,16 +24080,16 @@
         <v>6</v>
       </c>
       <c r="B712" t="s">
-        <v>695</v>
+        <v>715</v>
       </c>
       <c r="C712" t="s">
-        <v>1441</v>
+        <v>1461</v>
       </c>
       <c r="D712" t="s">
-        <v>2185</v>
+        <v>2205</v>
       </c>
       <c r="E712">
-        <v>78</v>
+        <v>298</v>
       </c>
       <c r="F712">
         <v>1</v>
@@ -23720,16 +24100,16 @@
         <v>6</v>
       </c>
       <c r="B713" t="s">
-        <v>696</v>
+        <v>716</v>
       </c>
       <c r="C713" t="s">
-        <v>1442</v>
+        <v>1462</v>
       </c>
       <c r="D713" t="s">
-        <v>2186</v>
+        <v>2206</v>
       </c>
       <c r="E713">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F713">
         <v>1</v>
@@ -23740,16 +24120,16 @@
         <v>6</v>
       </c>
       <c r="B714" t="s">
-        <v>697</v>
+        <v>717</v>
       </c>
       <c r="C714" t="s">
-        <v>1443</v>
+        <v>1463</v>
       </c>
       <c r="D714" t="s">
-        <v>2187</v>
+        <v>2207</v>
       </c>
       <c r="E714">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F714">
         <v>1</v>
@@ -23760,16 +24140,16 @@
         <v>6</v>
       </c>
       <c r="B715" t="s">
-        <v>698</v>
+        <v>718</v>
       </c>
       <c r="C715" t="s">
-        <v>1444</v>
+        <v>1464</v>
       </c>
       <c r="D715" t="s">
-        <v>2188</v>
+        <v>2208</v>
       </c>
       <c r="E715">
-        <v>288</v>
+        <v>4</v>
       </c>
       <c r="F715">
         <v>1</v>
@@ -23777,22 +24157,22 @@
     </row>
     <row r="716" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A716" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B716" t="s">
-        <v>699</v>
+        <v>719</v>
       </c>
       <c r="C716" t="s">
-        <v>1445</v>
+        <v>1465</v>
       </c>
       <c r="D716" t="s">
-        <v>2189</v>
+        <v>2209</v>
       </c>
       <c r="E716">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="F716">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717" spans="1:6" x14ac:dyDescent="0.35">
@@ -23800,16 +24180,16 @@
         <v>6</v>
       </c>
       <c r="B717" t="s">
-        <v>700</v>
+        <v>721</v>
       </c>
       <c r="C717" t="s">
-        <v>1446</v>
+        <v>1467</v>
       </c>
       <c r="D717" t="s">
-        <v>2190</v>
+        <v>2212</v>
       </c>
       <c r="E717">
-        <v>208</v>
+        <v>64</v>
       </c>
       <c r="F717">
         <v>1</v>
@@ -23820,16 +24200,16 @@
         <v>6</v>
       </c>
       <c r="B718" t="s">
-        <v>701</v>
+        <v>722</v>
       </c>
       <c r="C718" t="s">
-        <v>1447</v>
+        <v>1468</v>
       </c>
       <c r="D718" t="s">
-        <v>2191</v>
+        <v>2213</v>
       </c>
       <c r="E718">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="F718">
         <v>1</v>
@@ -23840,16 +24220,16 @@
         <v>6</v>
       </c>
       <c r="B719" t="s">
-        <v>702</v>
+        <v>723</v>
       </c>
       <c r="C719" t="s">
-        <v>1448</v>
+        <v>1469</v>
       </c>
       <c r="D719" t="s">
-        <v>2192</v>
+        <v>2214</v>
       </c>
       <c r="E719">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="F719">
         <v>1</v>
@@ -23860,16 +24240,16 @@
         <v>6</v>
       </c>
       <c r="B720" t="s">
-        <v>703</v>
+        <v>724</v>
       </c>
       <c r="C720" t="s">
-        <v>1449</v>
+        <v>1470</v>
       </c>
       <c r="D720" t="s">
-        <v>2193</v>
+        <v>2215</v>
       </c>
       <c r="E720">
-        <v>127</v>
+        <v>254</v>
       </c>
       <c r="F720">
         <v>1</v>
@@ -23880,16 +24260,16 @@
         <v>6</v>
       </c>
       <c r="B721" t="s">
-        <v>704</v>
+        <v>725</v>
       </c>
       <c r="C721" t="s">
-        <v>1450</v>
+        <v>1471</v>
       </c>
       <c r="D721" t="s">
-        <v>2194</v>
+        <v>2216</v>
       </c>
       <c r="E721">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F721">
         <v>1</v>
@@ -23900,16 +24280,16 @@
         <v>6</v>
       </c>
       <c r="B722" t="s">
-        <v>705</v>
+        <v>726</v>
       </c>
       <c r="C722" t="s">
-        <v>1451</v>
+        <v>1472</v>
       </c>
       <c r="D722" t="s">
-        <v>2195</v>
+        <v>2217</v>
       </c>
       <c r="E722">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="F722">
         <v>1</v>
@@ -23920,16 +24300,16 @@
         <v>6</v>
       </c>
       <c r="B723" t="s">
-        <v>706</v>
+        <v>727</v>
       </c>
       <c r="C723" t="s">
-        <v>1452</v>
+        <v>1473</v>
       </c>
       <c r="D723" t="s">
-        <v>2196</v>
+        <v>2218</v>
       </c>
       <c r="E723">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="F723">
         <v>1</v>
@@ -23940,16 +24320,16 @@
         <v>6</v>
       </c>
       <c r="B724" t="s">
-        <v>707</v>
+        <v>728</v>
       </c>
       <c r="C724" t="s">
-        <v>1453</v>
+        <v>1474</v>
       </c>
       <c r="D724" t="s">
-        <v>2197</v>
+        <v>2219</v>
       </c>
       <c r="E724">
-        <v>291</v>
+        <v>234</v>
       </c>
       <c r="F724">
         <v>1</v>
@@ -23960,16 +24340,16 @@
         <v>6</v>
       </c>
       <c r="B725" t="s">
-        <v>708</v>
+        <v>729</v>
       </c>
       <c r="C725" t="s">
-        <v>1454</v>
+        <v>1475</v>
       </c>
       <c r="D725" t="s">
-        <v>2198</v>
+        <v>2220</v>
       </c>
       <c r="E725">
-        <v>297</v>
+        <v>189</v>
       </c>
       <c r="F725">
         <v>1</v>
@@ -23980,16 +24360,16 @@
         <v>6</v>
       </c>
       <c r="B726" t="s">
-        <v>709</v>
+        <v>730</v>
       </c>
       <c r="C726" t="s">
-        <v>1455</v>
+        <v>1476</v>
       </c>
       <c r="D726" t="s">
-        <v>2199</v>
+        <v>2221</v>
       </c>
       <c r="E726">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="F726">
         <v>1</v>
@@ -24000,16 +24380,16 @@
         <v>6</v>
       </c>
       <c r="B727" t="s">
-        <v>710</v>
+        <v>731</v>
       </c>
       <c r="C727" t="s">
-        <v>1456</v>
+        <v>1477</v>
       </c>
       <c r="D727" t="s">
-        <v>2200</v>
+        <v>2222</v>
       </c>
       <c r="E727">
-        <v>204</v>
+        <v>278</v>
       </c>
       <c r="F727">
         <v>1</v>
@@ -24020,16 +24400,16 @@
         <v>6</v>
       </c>
       <c r="B728" t="s">
-        <v>711</v>
+        <v>732</v>
       </c>
       <c r="C728" t="s">
-        <v>1457</v>
+        <v>1478</v>
       </c>
       <c r="D728" t="s">
-        <v>2201</v>
+        <v>2223</v>
       </c>
       <c r="E728">
-        <v>231</v>
+        <v>107</v>
       </c>
       <c r="F728">
         <v>1</v>
@@ -24040,16 +24420,16 @@
         <v>6</v>
       </c>
       <c r="B729" t="s">
-        <v>712</v>
+        <v>733</v>
       </c>
       <c r="C729" t="s">
-        <v>1458</v>
+        <v>1479</v>
       </c>
       <c r="D729" t="s">
-        <v>2202</v>
+        <v>2224</v>
       </c>
       <c r="E729">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="F729">
         <v>1</v>
@@ -24060,16 +24440,16 @@
         <v>6</v>
       </c>
       <c r="B730" t="s">
-        <v>713</v>
+        <v>734</v>
       </c>
       <c r="C730" t="s">
-        <v>1459</v>
+        <v>1480</v>
       </c>
       <c r="D730" t="s">
-        <v>2203</v>
+        <v>2225</v>
       </c>
       <c r="E730">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="F730">
         <v>1</v>
@@ -24080,16 +24460,16 @@
         <v>6</v>
       </c>
       <c r="B731" t="s">
-        <v>714</v>
+        <v>735</v>
       </c>
       <c r="C731" t="s">
-        <v>1460</v>
+        <v>1481</v>
       </c>
       <c r="D731" t="s">
-        <v>2204</v>
+        <v>2226</v>
       </c>
       <c r="E731">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="F731">
         <v>1</v>
@@ -24100,16 +24480,16 @@
         <v>6</v>
       </c>
       <c r="B732" t="s">
-        <v>715</v>
+        <v>736</v>
       </c>
       <c r="C732" t="s">
-        <v>1461</v>
+        <v>1482</v>
       </c>
       <c r="D732" t="s">
-        <v>2205</v>
+        <v>2227</v>
       </c>
       <c r="E732">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="F732">
         <v>1</v>
@@ -24120,16 +24500,16 @@
         <v>6</v>
       </c>
       <c r="B733" t="s">
-        <v>716</v>
+        <v>737</v>
       </c>
       <c r="C733" t="s">
-        <v>1462</v>
+        <v>1483</v>
       </c>
       <c r="D733" t="s">
-        <v>2206</v>
+        <v>2228</v>
       </c>
       <c r="E733">
-        <v>55</v>
+        <v>225</v>
       </c>
       <c r="F733">
         <v>1</v>
@@ -24140,16 +24520,16 @@
         <v>6</v>
       </c>
       <c r="B734" t="s">
-        <v>717</v>
+        <v>738</v>
       </c>
       <c r="C734" t="s">
-        <v>1463</v>
+        <v>1484</v>
       </c>
       <c r="D734" t="s">
-        <v>2207</v>
+        <v>2229</v>
       </c>
       <c r="E734">
-        <v>13</v>
+        <v>212</v>
       </c>
       <c r="F734">
         <v>1</v>
@@ -24160,16 +24540,16 @@
         <v>6</v>
       </c>
       <c r="B735" t="s">
-        <v>718</v>
+        <v>739</v>
       </c>
       <c r="C735" t="s">
-        <v>1464</v>
+        <v>1485</v>
       </c>
       <c r="D735" t="s">
-        <v>2208</v>
+        <v>2230</v>
       </c>
       <c r="E735">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="F735">
         <v>1</v>
@@ -24180,16 +24560,16 @@
         <v>6</v>
       </c>
       <c r="B736" t="s">
-        <v>719</v>
+        <v>740</v>
       </c>
       <c r="C736" t="s">
-        <v>1465</v>
+        <v>1486</v>
       </c>
       <c r="D736" t="s">
-        <v>2209</v>
+        <v>2231</v>
       </c>
       <c r="E736">
-        <v>57</v>
+        <v>216</v>
       </c>
       <c r="F736">
         <v>1</v>
@@ -24200,16 +24580,16 @@
         <v>6</v>
       </c>
       <c r="B737" t="s">
-        <v>721</v>
+        <v>741</v>
       </c>
       <c r="C737" t="s">
-        <v>1467</v>
+        <v>1487</v>
       </c>
       <c r="D737" t="s">
-        <v>2212</v>
+        <v>2232</v>
       </c>
       <c r="E737">
-        <v>64</v>
+        <v>296</v>
       </c>
       <c r="F737">
         <v>1</v>
@@ -24220,16 +24600,16 @@
         <v>6</v>
       </c>
       <c r="B738" t="s">
-        <v>722</v>
+        <v>742</v>
       </c>
       <c r="C738" t="s">
-        <v>1468</v>
+        <v>1488</v>
       </c>
       <c r="D738" t="s">
-        <v>2213</v>
+        <v>2233</v>
       </c>
       <c r="E738">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="F738">
         <v>1</v>
@@ -24240,16 +24620,16 @@
         <v>6</v>
       </c>
       <c r="B739" t="s">
-        <v>723</v>
+        <v>743</v>
       </c>
       <c r="C739" t="s">
-        <v>1469</v>
+        <v>1489</v>
       </c>
       <c r="D739" t="s">
-        <v>2214</v>
+        <v>2234</v>
       </c>
       <c r="E739">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="F739">
         <v>1</v>
@@ -24260,16 +24640,16 @@
         <v>6</v>
       </c>
       <c r="B740" t="s">
-        <v>724</v>
+        <v>744</v>
       </c>
       <c r="C740" t="s">
-        <v>1470</v>
+        <v>1490</v>
       </c>
       <c r="D740" t="s">
-        <v>2215</v>
+        <v>2235</v>
       </c>
       <c r="E740">
-        <v>254</v>
+        <v>198</v>
       </c>
       <c r="F740">
         <v>1</v>
@@ -24280,16 +24660,16 @@
         <v>6</v>
       </c>
       <c r="B741" t="s">
-        <v>725</v>
+        <v>745</v>
       </c>
       <c r="C741" t="s">
-        <v>1471</v>
+        <v>1491</v>
       </c>
       <c r="D741" t="s">
-        <v>2216</v>
+        <v>2236</v>
       </c>
       <c r="E741">
-        <v>41</v>
+        <v>163</v>
       </c>
       <c r="F741">
         <v>1</v>
@@ -24300,16 +24680,16 @@
         <v>6</v>
       </c>
       <c r="B742" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="C742" t="s">
-        <v>1472</v>
+        <v>1492</v>
       </c>
       <c r="D742" t="s">
-        <v>2217</v>
+        <v>2237</v>
       </c>
       <c r="E742">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="F742">
         <v>1</v>
@@ -24320,418 +24700,18 @@
         <v>6</v>
       </c>
       <c r="B743" t="s">
-        <v>727</v>
+        <v>747</v>
       </c>
       <c r="C743" t="s">
-        <v>1473</v>
+        <v>1493</v>
       </c>
       <c r="D743" t="s">
-        <v>2218</v>
+        <v>2238</v>
       </c>
       <c r="E743">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="F743">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="744" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A744" t="s">
-        <v>6</v>
-      </c>
-      <c r="B744" t="s">
-        <v>728</v>
-      </c>
-      <c r="C744" t="s">
-        <v>1474</v>
-      </c>
-      <c r="D744" t="s">
-        <v>2219</v>
-      </c>
-      <c r="E744">
-        <v>234</v>
-      </c>
-      <c r="F744">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="745" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A745" t="s">
-        <v>6</v>
-      </c>
-      <c r="B745" t="s">
-        <v>729</v>
-      </c>
-      <c r="C745" t="s">
-        <v>1475</v>
-      </c>
-      <c r="D745" t="s">
-        <v>2220</v>
-      </c>
-      <c r="E745">
-        <v>189</v>
-      </c>
-      <c r="F745">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="746" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A746" t="s">
-        <v>6</v>
-      </c>
-      <c r="B746" t="s">
-        <v>730</v>
-      </c>
-      <c r="C746" t="s">
-        <v>1476</v>
-      </c>
-      <c r="D746" t="s">
-        <v>2221</v>
-      </c>
-      <c r="E746">
-        <v>76</v>
-      </c>
-      <c r="F746">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="747" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A747" t="s">
-        <v>6</v>
-      </c>
-      <c r="B747" t="s">
-        <v>731</v>
-      </c>
-      <c r="C747" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D747" t="s">
-        <v>2222</v>
-      </c>
-      <c r="E747">
-        <v>278</v>
-      </c>
-      <c r="F747">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="748" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A748" t="s">
-        <v>6</v>
-      </c>
-      <c r="B748" t="s">
-        <v>732</v>
-      </c>
-      <c r="C748" t="s">
-        <v>1478</v>
-      </c>
-      <c r="D748" t="s">
-        <v>2223</v>
-      </c>
-      <c r="E748">
-        <v>107</v>
-      </c>
-      <c r="F748">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="749" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A749" t="s">
-        <v>6</v>
-      </c>
-      <c r="B749" t="s">
-        <v>733</v>
-      </c>
-      <c r="C749" t="s">
-        <v>1479</v>
-      </c>
-      <c r="D749" t="s">
-        <v>2224</v>
-      </c>
-      <c r="E749">
-        <v>94</v>
-      </c>
-      <c r="F749">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="750" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A750" t="s">
-        <v>6</v>
-      </c>
-      <c r="B750" t="s">
-        <v>734</v>
-      </c>
-      <c r="C750" t="s">
-        <v>1480</v>
-      </c>
-      <c r="D750" t="s">
-        <v>2225</v>
-      </c>
-      <c r="E750">
-        <v>241</v>
-      </c>
-      <c r="F750">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="751" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A751" t="s">
-        <v>6</v>
-      </c>
-      <c r="B751" t="s">
-        <v>735</v>
-      </c>
-      <c r="C751" t="s">
-        <v>1481</v>
-      </c>
-      <c r="D751" t="s">
-        <v>2226</v>
-      </c>
-      <c r="E751">
-        <v>208</v>
-      </c>
-      <c r="F751">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="752" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A752" t="s">
-        <v>6</v>
-      </c>
-      <c r="B752" t="s">
-        <v>736</v>
-      </c>
-      <c r="C752" t="s">
-        <v>1482</v>
-      </c>
-      <c r="D752" t="s">
-        <v>2227</v>
-      </c>
-      <c r="E752">
-        <v>251</v>
-      </c>
-      <c r="F752">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="753" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A753" t="s">
-        <v>6</v>
-      </c>
-      <c r="B753" t="s">
-        <v>737</v>
-      </c>
-      <c r="C753" t="s">
-        <v>1483</v>
-      </c>
-      <c r="D753" t="s">
-        <v>2228</v>
-      </c>
-      <c r="E753">
-        <v>225</v>
-      </c>
-      <c r="F753">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="754" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A754" t="s">
-        <v>6</v>
-      </c>
-      <c r="B754" t="s">
-        <v>738</v>
-      </c>
-      <c r="C754" t="s">
-        <v>1484</v>
-      </c>
-      <c r="D754" t="s">
-        <v>2229</v>
-      </c>
-      <c r="E754">
-        <v>212</v>
-      </c>
-      <c r="F754">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="755" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A755" t="s">
-        <v>6</v>
-      </c>
-      <c r="B755" t="s">
-        <v>739</v>
-      </c>
-      <c r="C755" t="s">
-        <v>1485</v>
-      </c>
-      <c r="D755" t="s">
-        <v>2230</v>
-      </c>
-      <c r="E755">
-        <v>109</v>
-      </c>
-      <c r="F755">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="756" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A756" t="s">
-        <v>6</v>
-      </c>
-      <c r="B756" t="s">
-        <v>740</v>
-      </c>
-      <c r="C756" t="s">
-        <v>1486</v>
-      </c>
-      <c r="D756" t="s">
-        <v>2231</v>
-      </c>
-      <c r="E756">
-        <v>216</v>
-      </c>
-      <c r="F756">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="757" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A757" t="s">
-        <v>6</v>
-      </c>
-      <c r="B757" t="s">
-        <v>741</v>
-      </c>
-      <c r="C757" t="s">
-        <v>1487</v>
-      </c>
-      <c r="D757" t="s">
-        <v>2232</v>
-      </c>
-      <c r="E757">
-        <v>296</v>
-      </c>
-      <c r="F757">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="758" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A758" t="s">
-        <v>6</v>
-      </c>
-      <c r="B758" t="s">
-        <v>742</v>
-      </c>
-      <c r="C758" t="s">
-        <v>1488</v>
-      </c>
-      <c r="D758" t="s">
-        <v>2233</v>
-      </c>
-      <c r="E758">
-        <v>130</v>
-      </c>
-      <c r="F758">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="759" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A759" t="s">
-        <v>6</v>
-      </c>
-      <c r="B759" t="s">
-        <v>743</v>
-      </c>
-      <c r="C759" t="s">
-        <v>1489</v>
-      </c>
-      <c r="D759" t="s">
-        <v>2234</v>
-      </c>
-      <c r="E759">
-        <v>155</v>
-      </c>
-      <c r="F759">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="760" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A760" t="s">
-        <v>6</v>
-      </c>
-      <c r="B760" t="s">
-        <v>744</v>
-      </c>
-      <c r="C760" t="s">
-        <v>1490</v>
-      </c>
-      <c r="D760" t="s">
-        <v>2235</v>
-      </c>
-      <c r="E760">
-        <v>198</v>
-      </c>
-      <c r="F760">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="761" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A761" t="s">
-        <v>6</v>
-      </c>
-      <c r="B761" t="s">
-        <v>745</v>
-      </c>
-      <c r="C761" t="s">
-        <v>1491</v>
-      </c>
-      <c r="D761" t="s">
-        <v>2236</v>
-      </c>
-      <c r="E761">
-        <v>163</v>
-      </c>
-      <c r="F761">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="762" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A762" t="s">
-        <v>6</v>
-      </c>
-      <c r="B762" t="s">
-        <v>746</v>
-      </c>
-      <c r="C762" t="s">
-        <v>1492</v>
-      </c>
-      <c r="D762" t="s">
-        <v>2237</v>
-      </c>
-      <c r="E762">
-        <v>287</v>
-      </c>
-      <c r="F762">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="763" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A763" t="s">
-        <v>6</v>
-      </c>
-      <c r="B763" t="s">
-        <v>747</v>
-      </c>
-      <c r="C763" t="s">
-        <v>1493</v>
-      </c>
-      <c r="D763" t="s">
-        <v>2238</v>
-      </c>
-      <c r="E763">
-        <v>266</v>
-      </c>
-      <c r="F763">
         <v>1</v>
       </c>
     </row>
